--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_23.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>769803.634895005</v>
+        <v>766238.1330214568</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10491809.80354246</v>
+        <v>10488269.92719995</v>
       </c>
     </row>
     <row r="11">
@@ -662,10 +662,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>56.84770966852722</v>
       </c>
       <c r="E2" t="n">
-        <v>25.10813153236067</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
@@ -713,7 +713,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>10.5115895043658</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>13.71410396768083</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>111.1208004946592</v>
+        <v>112.8381367815073</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -826,16 +826,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>42.26304432991609</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>342.3215084423327</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -975,25 +975,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>2.400034639828502</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>69.9893010461506</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>112.8381367815073</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>112.8381367815073</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>298.3390416644457</v>
       </c>
       <c r="C8" t="n">
-        <v>372.4089305243873</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>78.03010452925137</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -1306,13 +1306,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>130.2648764202384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>32.30695450311271</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372783</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
-        <v>46.87713095496964</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993869</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177841</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>82.84545313338897</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.6851687145609</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>30.49305065440588</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
-        <v>178.8250069810946</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>167.2186022584439</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>76.11243740435528</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372783</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362796</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1765,25 +1765,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>97.42475435993869</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>82.99846957177841</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>82.92491162465753</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>13.03754438576933</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681693</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>56.94707827356871</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1844,25 +1844,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190349</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.59377642287497</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799146</v>
@@ -2090,16 +2090,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2770,13 +2770,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404418</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
-        <v>127.274321941861</v>
+        <v>127.2743219418612</v>
       </c>
       <c r="U29" t="n">
         <v>159.2039277954309</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820278</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838891</v>
+        <v>24.17382596574986</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828903</v>
+        <v>52.06849973564998</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431736</v>
+        <v>70.5760187316783</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459977</v>
+        <v>55.72314698196071</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643949</v>
+        <v>41.29686219380044</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193186</v>
+        <v>41.22330424667955</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908587</v>
+        <v>42.97275566644682</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147801</v>
+        <v>53.79159358883895</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805005</v>
+        <v>41.14384575541099</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922198</v>
+        <v>18.98356133658292</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.3255221736779</v>
+        <v>9.882059701038841</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920521</v>
+        <v>88.00800320656616</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
@@ -3746,7 +3746,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F41" t="n">
         <v>282.3655247697376</v>
@@ -3758,7 +3758,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277553</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U41" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W41" t="n">
         <v>236.929075365811</v>
@@ -3806,7 +3806,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E43" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G43" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V43" t="n">
         <v>132.9595824117996</v>
@@ -3964,7 +3964,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
@@ -3983,7 +3983,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F44" t="n">
         <v>282.3655247697376</v>
@@ -3992,10 +3992,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.482250613591</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277553</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U44" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W44" t="n">
         <v>236.929075365811</v>
@@ -4043,7 +4043,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E46" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G46" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V46" t="n">
         <v>132.9595824117996</v>
@@ -4201,7 +4201,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1746.775898523737</v>
+        <v>1391.40253703751</v>
       </c>
       <c r="C2" t="n">
-        <v>1746.775898523737</v>
+        <v>1391.40253703751</v>
       </c>
       <c r="D2" t="n">
-        <v>1361.334769740405</v>
+        <v>1333.980608079402</v>
       </c>
       <c r="E2" t="n">
-        <v>1335.973020717819</v>
+        <v>1333.980608079402</v>
       </c>
       <c r="F2" t="n">
-        <v>919.0785822477964</v>
+        <v>917.0861696093798</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357995</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>1578.706865059666</v>
+        <v>1552.058346020845</v>
       </c>
       <c r="N2" t="n">
-        <v>1641.749917465278</v>
+        <v>1635.122736924594</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465278</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.9374095968</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.79005602327</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964321</v>
+        <v>1870.655869043495</v>
       </c>
       <c r="T2" t="n">
-        <v>1746.775898523737</v>
+        <v>1647.155266602912</v>
       </c>
       <c r="U2" t="n">
-        <v>1746.775898523737</v>
+        <v>1391.40253703751</v>
       </c>
       <c r="V2" t="n">
-        <v>1746.775898523737</v>
+        <v>1391.40253703751</v>
       </c>
       <c r="W2" t="n">
-        <v>1746.775898523737</v>
+        <v>1391.40253703751</v>
       </c>
       <c r="X2" t="n">
-        <v>1746.775898523737</v>
+        <v>1391.40253703751</v>
       </c>
       <c r="Y2" t="n">
-        <v>1746.775898523737</v>
+        <v>1391.40253703751</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>715.0405061833842</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>564.3862757434764</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>434.2973083649567</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442686</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>158.7695259828351</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>642.3356118811483</v>
       </c>
       <c r="M3" t="n">
-        <v>1498.174658585115</v>
+        <v>1155.938290490837</v>
       </c>
       <c r="N3" t="n">
-        <v>1534.79650946646</v>
+        <v>1669.540969100525</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.79650946646</v>
+        <v>1669.540969100525</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182858</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S3" t="n">
-        <v>2039.852292637617</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>1898.178526015831</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1688.115382694473</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1465.57538106554</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1235.458135198827</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1046.151057548838</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>866.8368406243455</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="C4" t="n">
-        <v>708.7984597459963</v>
+        <v>828.9723533569745</v>
       </c>
       <c r="D4" t="n">
-        <v>553.165346648511</v>
+        <v>673.3392402594892</v>
       </c>
       <c r="E4" t="n">
-        <v>397.6065345077135</v>
+        <v>517.7804281186917</v>
       </c>
       <c r="F4" t="n">
-        <v>397.6065345077135</v>
+        <v>360.4544933316647</v>
       </c>
       <c r="G4" t="n">
-        <v>229.352480607159</v>
+        <v>360.4544933316647</v>
       </c>
       <c r="H4" t="n">
-        <v>73.87392956865301</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865301</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="Y4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>783.8384411065817</v>
+        <v>1412.481082529348</v>
       </c>
       <c r="C5" t="n">
-        <v>783.8384411065817</v>
+        <v>1412.481082529348</v>
       </c>
       <c r="D5" t="n">
-        <v>398.3973123232495</v>
+        <v>1412.481082529348</v>
       </c>
       <c r="E5" t="n">
-        <v>398.3973123232495</v>
+        <v>1009.897557645893</v>
       </c>
       <c r="F5" t="n">
-        <v>52.61801086634774</v>
+        <v>593.0031191758706</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475497</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475497</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475497</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222168</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L5" t="n">
-        <v>895.7983071407457</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>1434.057092150838</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="N5" t="n">
-        <v>1434.057092150838</v>
+        <v>1552.058346020845</v>
       </c>
       <c r="O5" t="n">
-        <v>1874.096693043167</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737748</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.79005602327</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964321</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964321</v>
+        <v>1851.661735376339</v>
       </c>
       <c r="U5" t="n">
-        <v>1970.276500964321</v>
+        <v>1851.661735376339</v>
       </c>
       <c r="V5" t="n">
-        <v>1970.276500964321</v>
+        <v>1851.661735376339</v>
       </c>
       <c r="W5" t="n">
-        <v>1970.276500964321</v>
+        <v>1851.661735376339</v>
       </c>
       <c r="X5" t="n">
-        <v>1580.823895897377</v>
+        <v>1851.661735376339</v>
       </c>
       <c r="Y5" t="n">
-        <v>1184.333186817979</v>
+        <v>1455.17102629694</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021433</v>
+        <v>556.1927859813175</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622355</v>
+        <v>553.7685085673493</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837159</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="E6" t="n">
-        <v>238.6237291946036</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>114.1919230777354</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>43.49565939475497</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>43.49565939475497</v>
+        <v>90.89050074442686</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K6" t="n">
-        <v>363.2348054569814</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L6" t="n">
-        <v>363.2348054569814</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M6" t="n">
-        <v>901.493590467074</v>
+        <v>1358.411157326566</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591877</v>
+        <v>1358.411157326566</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182858</v>
+        <v>1669.540969100525</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182858</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.95143773459</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413232</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784299</v>
+        <v>1306.727660863473</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917586</v>
+        <v>1076.61041499676</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675974</v>
+        <v>887.3033373467715</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431047</v>
+        <v>707.9891204222788</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>830.964765995391</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="C7" t="n">
-        <v>830.964765995391</v>
+        <v>828.9723533569745</v>
       </c>
       <c r="D7" t="n">
-        <v>675.3316528979058</v>
+        <v>673.3392402594892</v>
       </c>
       <c r="E7" t="n">
-        <v>519.7728407571083</v>
+        <v>517.7804281186917</v>
       </c>
       <c r="F7" t="n">
-        <v>362.4469059700812</v>
+        <v>360.4544933316647</v>
       </c>
       <c r="G7" t="n">
-        <v>362.4469059700812</v>
+        <v>360.4544933316647</v>
       </c>
       <c r="H7" t="n">
-        <v>206.9683549315751</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865301</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X7" t="n">
-        <v>830.964765995391</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="Y7" t="n">
-        <v>830.964765995391</v>
+        <v>942.9502692978909</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2365.64850507718</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="C8" t="n">
-        <v>1989.47786818386</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="D8" t="n">
         <v>1604.036739400527</v>
@@ -4814,40 +4814,40 @@
         <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>2118.077574438405</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.64850507718</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="X8" t="n">
-        <v>2365.64850507718</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="Y8" t="n">
-        <v>2365.64850507718</v>
+        <v>1905.389306738351</v>
       </c>
     </row>
     <row r="9">
@@ -4890,16 +4890,16 @@
         <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
+        <v>850.6182020620834</v>
+      </c>
+      <c r="N9" t="n">
         <v>1436.116207068686</v>
       </c>
-      <c r="N9" t="n">
-        <v>1849.128222486199</v>
-      </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>1952.636489659666</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2358.257858376064</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>817.17930939033</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>817.17930939033</v>
+        <v>869.9417052398119</v>
       </c>
       <c r="D10" t="n">
-        <v>661.5461962928448</v>
+        <v>714.3085921423267</v>
       </c>
       <c r="E10" t="n">
-        <v>505.9873841520472</v>
+        <v>558.7497800015292</v>
       </c>
       <c r="F10" t="n">
-        <v>348.6614493650202</v>
+        <v>401.4238452145021</v>
       </c>
       <c r="G10" t="n">
-        <v>180.4073954644657</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -5005,7 +5005,7 @@
         <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>817.17930939033</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2033.222718167679</v>
+        <v>1413.689529456424</v>
       </c>
       <c r="C11" t="n">
-        <v>1711.843491816804</v>
+        <v>1381.056242079542</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179665</v>
+        <v>1067.411388442403</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>1067.411388442403</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185752</v>
+        <v>722.3132251185751</v>
       </c>
       <c r="G11" t="n">
         <v>380.9467447527722</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579424</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="V11" t="n">
-        <v>2405.267789429136</v>
+        <v>2683.941523761099</v>
       </c>
       <c r="W11" t="n">
-        <v>2405.267789429136</v>
+        <v>2384.738763875581</v>
       </c>
       <c r="X11" t="n">
-        <v>2357.917152100884</v>
+        <v>2067.082433954832</v>
       </c>
       <c r="Y11" t="n">
-        <v>2033.222718167679</v>
+        <v>1742.388000021627</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>1606.310991511064</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N12" t="n">
-        <v>1606.310991511064</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O12" t="n">
-        <v>2122.831274102045</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>411.5513789862251</v>
+        <v>389.345234552264</v>
       </c>
       <c r="C13" t="n">
-        <v>411.5513789862251</v>
+        <v>290.9363917644471</v>
       </c>
       <c r="D13" t="n">
-        <v>411.5513789862251</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="E13" t="n">
-        <v>327.7888419916214</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="F13" t="n">
-        <v>242.2591823507883</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8014035964277</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,16 +5200,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581895</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.410653902774</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118228</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138167</v>
+        <v>999.6269248138165</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593279</v>
+        <v>1465.931580547431</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922022</v>
+        <v>1334.911771876174</v>
       </c>
       <c r="T13" t="n">
-        <v>1313.608118922022</v>
+        <v>1170.988995190603</v>
       </c>
       <c r="U13" t="n">
-        <v>1099.965602310117</v>
+        <v>957.3464785786974</v>
       </c>
       <c r="V13" t="n">
-        <v>905.7825322771348</v>
+        <v>763.1634085457156</v>
       </c>
       <c r="W13" t="n">
-        <v>725.1512120942109</v>
+        <v>551.6292816230871</v>
       </c>
       <c r="X13" t="n">
-        <v>562.8671650233879</v>
+        <v>389.345234552264</v>
       </c>
       <c r="Y13" t="n">
-        <v>411.5513789862251</v>
+        <v>389.345234552264</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1434.218555009978</v>
+        <v>1888.485543579474</v>
       </c>
       <c r="C14" t="n">
-        <v>1112.839328659103</v>
+        <v>1567.106317228599</v>
       </c>
       <c r="D14" t="n">
-        <v>799.194475021965</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="E14" t="n">
-        <v>799.194475021965</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185751</v>
+        <v>722.3132251185755</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527722</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654567</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5309,19 +5309,19 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="V14" t="n">
-        <v>2405.267789429136</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="W14" t="n">
-        <v>2405.267789429136</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="X14" t="n">
-        <v>2087.611459508387</v>
+        <v>2541.878448077882</v>
       </c>
       <c r="Y14" t="n">
-        <v>1762.917025575182</v>
+        <v>2217.184014144677</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>494.9732559860694</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1122.744905612751</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N15" t="n">
-        <v>1778.52287682331</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>2009.716291882317</v>
       </c>
       <c r="P15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>385.6496467242604</v>
+        <v>437.7543609454902</v>
       </c>
       <c r="C16" t="n">
-        <v>287.2408039364434</v>
+        <v>339.3455181576734</v>
       </c>
       <c r="D16" t="n">
-        <v>203.4039659851521</v>
+        <v>255.5086802063821</v>
       </c>
       <c r="E16" t="n">
-        <v>119.6414289905486</v>
+        <v>171.7461432117784</v>
       </c>
       <c r="F16" t="n">
-        <v>119.6414289905486</v>
+        <v>158.5769064584761</v>
       </c>
       <c r="G16" t="n">
-        <v>119.6414289905486</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>119.6414289905486</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5440,13 +5440,13 @@
         <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138165</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S16" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="T16" t="n">
-        <v>1280.705150907706</v>
+        <v>1332.809865128936</v>
       </c>
       <c r="U16" t="n">
-        <v>1067.062634295801</v>
+        <v>1119.167348517031</v>
       </c>
       <c r="V16" t="n">
-        <v>872.8795642628193</v>
+        <v>924.984278484049</v>
       </c>
       <c r="W16" t="n">
-        <v>661.3454373401909</v>
+        <v>713.4501515614206</v>
       </c>
       <c r="X16" t="n">
-        <v>499.0613902693678</v>
+        <v>551.1661044905976</v>
       </c>
       <c r="Y16" t="n">
-        <v>499.0613902693678</v>
+        <v>551.1661044905976</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>1352.560722599515</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975443</v>
+        <v>827.8895422975453</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099305</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803421</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924176</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,13 +5540,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5601,10 +5601,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
-        <v>1606.310991511064</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O18" t="n">
         <v>1740.468202408463</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5677,46 +5677,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485496</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879436</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296516</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5738,31 +5738,31 @@
         <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924227</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129439</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404059</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,28 +5771,28 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5835,10 +5835,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843828</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843828</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291065</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>278.5901810446707</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184705</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567345</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879436</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296516</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.77996610623</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5972,13 +5972,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H23" t="n">
         <v>68.77950792924223</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6026,7 +6026,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6145,25 +6145,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>499.953029634305</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>683.1426636655142</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
         <v>1098.20216247628</v>
@@ -6203,61 +6203,61 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1925.441780118093</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755555</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377514</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605753</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6300,19 +6300,19 @@
         <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755027</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>73.36485894755027</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>556.9309448458636</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1184.702594472545</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985352</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
         <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192016</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225747</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904121</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286451</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6437,55 +6437,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218606</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142183</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884792</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658946</v>
+        <v>1832.390418388518</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.201702025981</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377514</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
         <v>3596.670073605752</v>
@@ -6500,10 +6500,10 @@
         <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
         <v>2188.011670848361</v>
@@ -6537,7 +6537,7 @@
         <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
         <v>186.4798411672776</v>
@@ -6549,7 +6549,7 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985353</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414159</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
         <v>172.0564727746018</v>
@@ -6616,13 +6616,13 @@
         <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796863</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L31" t="n">
         <v>568.7078825225744</v>
@@ -6637,7 +6637,7 @@
         <v>1380.047947122476</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q31" t="n">
         <v>1689.449032728252</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286451</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.382657846367</v>
+        <v>904.3560533993073</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057093</v>
+        <v>601.3807258108102</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.1370811803386</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835507</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>323.8570290861561</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>682.8393851136179</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1219.21982269543</v>
       </c>
       <c r="M32" t="n">
-        <v>1612.500868940161</v>
+        <v>1765.220722740011</v>
       </c>
       <c r="N32" t="n">
-        <v>2140.312152577623</v>
+        <v>2293.032006377473</v>
       </c>
       <c r="O32" t="n">
-        <v>2665.761936315961</v>
+        <v>2733.071607269801</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174553</v>
+        <v>3081.259099401324</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042571</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.223615996513</v>
+        <v>365.6713676929717</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918668</v>
+        <v>309.3853606404862</v>
       </c>
       <c r="D34" t="n">
-        <v>302.206510823746</v>
+        <v>267.6713584245261</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123131</v>
+        <v>226.0316571652539</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546506</v>
+        <v>182.6248332597521</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834607</v>
+        <v>128.2898902407228</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431919</v>
+        <v>86.730450083742</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>149.4335135798905</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803362</v>
+        <v>342.9206752648152</v>
       </c>
       <c r="L34" t="n">
-        <v>391.009579354136</v>
+        <v>507.048315138615</v>
       </c>
       <c r="M34" t="n">
-        <v>595.8284816188163</v>
+        <v>804.9920140518618</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770957</v>
+        <v>988.181648083071</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145874</v>
+        <v>1150.886415124779</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649523</v>
+        <v>1270.762580901358</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746644</v>
+        <v>1379.984435873656</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250186</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439552</v>
+        <v>835.725728327368</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000942</v>
+        <v>666.3144371400708</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124418</v>
+        <v>546.1532258045792</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584497</v>
+        <v>436.9602755027478</v>
       </c>
     </row>
     <row r="35">
@@ -6920,16 +6920,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,7 +6971,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
         <v>2405.467337224691</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7096,49 +7096,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222413</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485498</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7166,7 +7166,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7205,13 +7205,13 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7260,7 +7260,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7333,25 +7333,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222407</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960405</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P40" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
@@ -7403,7 +7403,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,13 +7436,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
@@ -7451,7 +7451,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7497,10 +7497,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885592</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218802</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072667</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M43" t="n">
-        <v>623.4297566485498</v>
+        <v>629.0093992567326</v>
       </c>
       <c r="N43" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879418</v>
       </c>
       <c r="O43" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296498</v>
       </c>
       <c r="P43" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q43" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803439</v>
       </c>
       <c r="H44" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7676,22 +7676,22 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="45">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885592</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218802</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072667</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>67.69877031229888</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>149.5338114222407</v>
+        <v>273.010538436486</v>
       </c>
       <c r="L46" t="n">
-        <v>313.6614512960405</v>
+        <v>442.7178209184686</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567331</v>
+        <v>629.0093992567326</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879423</v>
+        <v>812.1990332879418</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296498</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
   </sheetData>
@@ -7985,19 +7985,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321644</v>
+        <v>668.5156360519579</v>
       </c>
       <c r="N2" t="n">
-        <v>212.7983422525434</v>
+        <v>233.0219164930856</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,19 +8055,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>208.0477224308047</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837489</v>
+        <v>611.1777065035425</v>
       </c>
       <c r="N3" t="n">
-        <v>122.3638814211824</v>
+        <v>604.1626973083972</v>
       </c>
       <c r="O3" t="n">
         <v>92.68755888888889</v>
@@ -8076,7 +8076,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8222,19 +8222,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321644</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>149.1184913377841</v>
+        <v>667.9090757920147</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>491.2390209141253</v>
       </c>
       <c r="P5" t="n">
-        <v>454.0249590536338</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8298,22 +8298,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837489</v>
+        <v>611.1777065035425</v>
       </c>
       <c r="N6" t="n">
-        <v>613.0529261115432</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>406.9600960343016</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8462,16 +8462,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
-        <v>399.6354845339704</v>
+        <v>394.3609707612346</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8538,19 +8538,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>502.5559668112513</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>98.45345285401153</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8705,7 +8705,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q11" t="n">
         <v>331.2113854294513</v>
@@ -8766,7 +8766,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8775,19 +8775,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>438.5811111539143</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>110.5765941352903</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,25 +9003,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
-        <v>290.9809095353983</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>461.5665676450056</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9179,7 +9179,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q17" t="n">
         <v>331.2113854294513</v>
@@ -9249,13 +9249,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>228.1998931286865</v>
+        <v>199.9106794075977</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9486,10 +9486,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931178</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>333.2595653118427</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9951,19 +9951,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N27" t="n">
-        <v>136.3731801151484</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069887</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10662,28 +10662,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11145,13 +11145,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
-        <v>228.1998931286865</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>285.858479584254</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362796</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>267.6026356665722</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465753</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442479</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681693</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.09061642461094</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>30.59377867230756</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -23498,13 +23498,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>143.289802842323</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>265.5347442862348</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23549,13 +23549,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>71.63681865865546</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>82.84545313338897</v>
       </c>
       <c r="I16" t="n">
-        <v>3.738090440992231</v>
+        <v>60.6851687145609</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901682</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-6.355920853283933e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-4.828432499725286e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>912779.4464283455</v>
+        <v>910974.8035870646</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>912779.4464283455</v>
+        <v>910974.8035870646</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>826413.1680476232</v>
+        <v>826413.1680476231</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>826413.168047623</v>
+        <v>826413.1680476231</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>924986.9949917172</v>
+        <v>924986.994991717</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>924986.9949917174</v>
+        <v>924986.9949917173</v>
       </c>
     </row>
     <row r="12">
@@ -26317,25 +26317,25 @@
         <v>414764.0096147207</v>
       </c>
       <c r="D2" t="n">
-        <v>414764.0096147206</v>
+        <v>414764.0096147208</v>
       </c>
       <c r="E2" t="n">
-        <v>366525.7538761215</v>
+        <v>366525.7538761218</v>
       </c>
       <c r="F2" t="n">
         <v>366525.7538761217</v>
       </c>
       <c r="G2" t="n">
-        <v>414764.0096147205</v>
+        <v>414764.0096147208</v>
       </c>
       <c r="H2" t="n">
-        <v>414764.0096147203</v>
+        <v>414764.0096147209</v>
       </c>
       <c r="I2" t="n">
         <v>414764.0096147209</v>
       </c>
       <c r="J2" t="n">
-        <v>414764.0096147205</v>
+        <v>414764.0096147204</v>
       </c>
       <c r="K2" t="n">
         <v>414764.0096147205</v>
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062194</v>
+        <v>22558.42953401347</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668191</v>
+        <v>47425.32553668192</v>
       </c>
       <c r="H3" t="n">
-        <v>1.85189012250345e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728548</v>
+        <v>62456.24177539672</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962295</v>
+        <v>43252.52447081116</v>
       </c>
       <c r="N3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277122</v>
+        <v>27767.69404277127</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232424.3126138793</v>
+        <v>237331.8440488215</v>
       </c>
       <c r="C4" t="n">
-        <v>232424.3126138793</v>
+        <v>237331.8440488215</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
       </c>
       <c r="E4" t="n">
-        <v>151510.2534766781</v>
+        <v>151510.2534766782</v>
       </c>
       <c r="F4" t="n">
-        <v>151510.2534766781</v>
+        <v>151510.2534766782</v>
       </c>
       <c r="G4" t="n">
-        <v>199269.1699682602</v>
+        <v>199269.1699682603</v>
       </c>
       <c r="H4" t="n">
-        <v>199269.1699682602</v>
+        <v>199269.1699682603</v>
       </c>
       <c r="I4" t="n">
         <v>199269.1699682603</v>
       </c>
       <c r="J4" t="n">
-        <v>200019.6624326435</v>
+        <v>200019.6624326434</v>
       </c>
       <c r="K4" t="n">
-        <v>200019.6624326435</v>
+        <v>200019.6624326434</v>
       </c>
       <c r="L4" t="n">
-        <v>199764.08853216</v>
+        <v>199630.6939231053</v>
       </c>
       <c r="M4" t="n">
         <v>199269.1699682603</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,22 +26482,22 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-66549.55243102828</v>
+        <v>-61596.55900297321</v>
       </c>
       <c r="C6" t="n">
-        <v>115655.3958608277</v>
+        <v>112262.0980310819</v>
       </c>
       <c r="D6" t="n">
-        <v>107334.5554752581</v>
+        <v>99598.26625186662</v>
       </c>
       <c r="E6" t="n">
-        <v>49706.91922555835</v>
+        <v>49497.18767886896</v>
       </c>
       <c r="F6" t="n">
-        <v>161829.480699603</v>
+        <v>161619.7491529134</v>
       </c>
       <c r="G6" t="n">
-        <v>109899.7447942586</v>
+        <v>109899.7447942589</v>
       </c>
       <c r="H6" t="n">
-        <v>157325.0703309402</v>
+        <v>157325.070330941</v>
       </c>
       <c r="I6" t="n">
-        <v>157325.0703309411</v>
+        <v>157325.070330941</v>
       </c>
       <c r="J6" t="n">
-        <v>-55716.8472663451</v>
+        <v>-49200.56211177191</v>
       </c>
       <c r="K6" t="n">
-        <v>151085.3019281575</v>
+        <v>151085.3019281576</v>
       </c>
       <c r="L6" t="n">
-        <v>95902.71299353651</v>
+        <v>91853.8757830642</v>
       </c>
       <c r="M6" t="n">
-        <v>115124.2408713181</v>
+        <v>114072.5458601298</v>
       </c>
       <c r="N6" t="n">
         <v>157325.0703309409</v>
       </c>
       <c r="O6" t="n">
-        <v>129557.3762881696</v>
+        <v>129557.3762881697</v>
       </c>
       <c r="P6" t="n">
         <v>157325.0703309409</v>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26753,7 +26753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.4185362318791e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443784</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443784</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095204</v>
+        <v>844.4391950293137</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085238</v>
+        <v>59.2816569208524</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660685</v>
+        <v>78.0703022192459</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551345</v>
+        <v>17.58004954287442</v>
       </c>
       <c r="N2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346408</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.4185362318791e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506446</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773714</v>
+        <v>659.3622249971647</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407264</v>
+        <v>117.1268713042793</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085238</v>
+        <v>59.2816569208524</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506446</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27382,10 +27382,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>324.7390078269717</v>
       </c>
       <c r="E2" t="n">
-        <v>373.4495581022602</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>124.5704364758553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27506,10 +27506,10 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>161.4998697153998</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>57.38226626001145</v>
+        <v>55.66492997316341</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>354.2267539243668</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>70.40398564298931</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -27679,7 +27679,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27695,25 +27695,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>146.7476534956802</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>48.8699187027036</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>55.66492997316341</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>118.9013822133395</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>98.15075658983716</v>
       </c>
       <c r="C8" t="n">
-        <v>16.83481595771138</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -28011,7 +28011,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>90.47296222541929</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28026,13 +28026,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>90.61606415128463</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
@@ -28749,13 +28749,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M19" t="n">
-        <v>130.3599693155843</v>
+        <v>5.636002634529177</v>
       </c>
       <c r="N19" t="n">
-        <v>5.636002634530087</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28956,34 +28956,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>130.3599693155843</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>35.71049010668915</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>128.2979821082778</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29217,7 +29217,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>35.71049010668811</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29226,19 +29226,19 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>30.27223765901317</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431644</v>
+        <v>86.65052755599538</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431644</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431687</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431636</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>30.27223765901306</v>
+        <v>30.27223765901215</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,37 +29746,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>43.49509683159931</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29785,37 +29785,37 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>86.27291196566557</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000709</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>18.71446861254171</v>
+        <v>112.77991977271</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>106.8683420224724</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30168,13 +30168,13 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>5.636002634529177</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>128.2979821082783</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30405,13 +30405,13 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>5.636002634528637</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30639,7 +30639,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>130.3599693155844</v>
+        <v>35.71049010668722</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>128.2979821082774</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30739,7 +30739,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="R44" t="n">
         <v>37.61298457733328</v>
@@ -30876,16 +30876,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>35.71049010668771</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>5.636002634528154</v>
       </c>
       <c r="M46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -32473,25 +32473,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1.236771369671924e-13</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1.534324246883461e-13</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.707231357290215e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1.734856145506603e-13</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1.638175463473446e-13</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.398144857545746e-13</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.049948560845564e-13</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -32555,16 +32555,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1.129524869426178e-13</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1.318102246374109e-13</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1.352988490699988e-13</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1.237720141233448e-13</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -34705,19 +34705,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="N2" t="n">
-        <v>63.67985091475926</v>
+        <v>83.90342515530153</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,19 +34775,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>118.4507870974713</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="N3" t="n">
-        <v>36.99176856701577</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34942,19 +34942,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344371</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>341.6751834900289</v>
       </c>
       <c r="P5" t="n">
-        <v>303.7235118127086</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="N6" t="n">
-        <v>527.6808132573766</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>314.2725371454127</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35182,16 +35182,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>250.071647109874</v>
+        <v>244.7971333371383</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35258,19 +35258,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>591.4121262692951</v>
-      </c>
-      <c r="N9" t="n">
-        <v>417.1838539570846</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>7.465299698097541</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35425,7 +35425,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q11" t="n">
         <v>186.7126870110591</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35495,19 +35495,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>346.1939891046024</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>23.49322931597565</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257291</v>
       </c>
       <c r="K13" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488446</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>198.2933506465095</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>374.483202825691</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257291</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488446</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7126870110591</v>
@@ -35969,13 +35969,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>135.5123342397976</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
@@ -36045,13 +36045,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5332807683762</v>
+        <v>193.8093140873211</v>
       </c>
       <c r="N19" t="n">
-        <v>190.6760370094889</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36121,25 +36121,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6084404317797</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>498.3033249682111</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510917</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449114</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457865</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065878</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110592</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,16 +36203,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.4505918164782</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>247.8874524576762</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828092</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>118.3721477934991</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36291,7 +36291,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>292.6462316453567</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.636002634529037</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36522,19 +36522,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36601,22 +36601,22 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>581.7882983101047</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>438.3550650625831</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853755</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698316</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N27" t="n">
-        <v>51.00106726098179</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6529321611268</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963363</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>528.575562627224</v>
+        <v>528.5755626272231</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
@@ -36850,10 +36850,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853755</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698316</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>258.890801498799</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>541.7984217998103</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37081,16 +37081,16 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>530.7573573114519</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066586</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.04914431113</v>
+        <v>299.4926067837691</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273763</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>247.8874524576768</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791183</v>
+        <v>82.70543230055088</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>195.4415774595199</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>206.8877800653337</v>
+        <v>300.9532312255019</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371497</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>110.3251060326249</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,13 +37464,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133915</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5332807683763</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634529554</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37628,10 +37628,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37701,13 +37701,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133861</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37865,13 +37865,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>135.5123342397976</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>100.2854818434254</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37944,7 +37944,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5332807683764</v>
+        <v>223.8838015594792</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>5.636002634528635</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.636002634528635</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565481</v>
       </c>
       <c r="M46" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
